--- a/文档/众神信仰.xlsx
+++ b/文档/众神信仰.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4E284-AC28-42FC-8479-E6EF25751940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="300" windowWidth="19500" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20925" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>C5</t>
   </si>
@@ -83,15 +64,21 @@
     <t>惊艳单元格+1信仰</t>
   </si>
   <si>
-    <t>迷人惊艳+1信仰</t>
+    <t>迷人+1、惊艳+2信仰。若城市位于迷人以上单元格，+1大预言家点数。</t>
   </si>
   <si>
     <t>信仰医者（疗愈之神）</t>
   </si>
   <si>
+    <t>与友方城市相邻时每回合+30HP</t>
+  </si>
+  <si>
     <t>与友方圣地相邻时每回合+30HP</t>
   </si>
   <si>
+    <t>与友方城市或圣地相邻时每回合+30HP</t>
+  </si>
+  <si>
     <t>丰产仪式</t>
   </si>
   <si>
@@ -116,6 +103,9 @@
     <t>改良的战略资源+1产能+1信仰</t>
   </si>
   <si>
+    <t>改良的战略资源+1产能+1信仰。若城市改良了马或铁，+1大预言家点数</t>
+  </si>
+  <si>
     <t>苍天之神</t>
   </si>
   <si>
@@ -215,7 +205,7 @@
     <t>奢侈和加成资源上的矿山+2信仰</t>
   </si>
   <si>
-    <t>奢侈和加成资源上的矿山+1文化+1信仰</t>
+    <t>奢侈和加成资源上的矿山+1文化+1信仰。若城市改良了铜、银或玉，+1大预言家点数</t>
   </si>
   <si>
     <t>宗教移民</t>
@@ -251,7 +241,7 @@
     <t>采石场+2信仰</t>
   </si>
   <si>
-    <t>采石场+1产能，+1信仰</t>
+    <t>采石场+1产能，+1信仰。若城市改良了石头、石膏或大理石，+1大预言家点数</t>
   </si>
   <si>
     <t>太阳神</t>
@@ -393,21 +383,19 @@
   </si>
   <si>
     <t>宗教圣典</t>
-  </si>
-  <si>
-    <t>与友方城市相邻时每回合+30HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与友方城市或圣地相邻时每回合+30HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +404,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -425,12 +414,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +574,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -473,9 +784,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -489,33 +1042,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -773,28 +1373,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -809,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +1420,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,7 +1435,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -850,7 +1450,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="42.75" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -860,701 +1460,701 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="28.5" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>120</v>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" ht="42.75" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" ht="42.75" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" ht="28.5" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" ht="42.75" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" ht="28.5" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" ht="28.5" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" ht="28.5" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" ht="28.5" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F39" t="str">
         <f>_xlfn.CONCAT(A39,B39,C39,D39,E39)</f>
         <v>&lt;Replace Tag="LOC_BELIEF_RIVER_GODDESS_NAME" Language="zh_Hans_CN" Text="河流女神"/&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
         <v>99</v>
       </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ref="F40:F52" si="0">_xlfn.CONCAT(A40,B40,C40,D40,E40)</f>
         <v>&lt;Replace Tag="LOC_BELIEF_MONUMENT_TO_THE_GODS_NAME" Language="zh_Hans_CN" Text="众神丰碑"/&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_DIVINE_SPARK_NAME" Language="zh_Hans_CN" Text="神圣火花"/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_LADY_OF_THE_REEDS_AND_MARSHES_NAME" Language="zh_Hans_CN" Text="芦沼女神"/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_GOD_OF_THE_OPEN_SKY_NAME" Language="zh_Hans_CN" Text="苍天之神"/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_INITIATION_RITES_NAME" Language="zh_Hans_CN" Text="入教仪式"/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_GOD_OF_HEALING_NAME" Language="zh_Hans_CN" Text="疗愈之神"/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_DIVINE_INSPIRATION_NAME" Language="zh_Hans_CN" Text="神圣启示"/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_LAY_MINISTRY_NAME" Language="zh_Hans_CN" Text="教友职务"/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_HOLY_ORDER_NAME" Language="zh_Hans_CN" Text="圣骑士团"/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_ITINERANT_PREACHERS_NAME" Language="zh_Hans_CN" Text="巡回宣教"/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_JUST_WAR_NAME" Language="zh_Hans_CN" Text="正义之战"/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Replace Tag="LOC_BELIEF_MONASTIC_ISOLATION_NAME" Language="zh_Hans_CN" Text="避世隐修"/&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -1562,7 +2162,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/众神信仰.xlsx
+++ b/文档/众神信仰.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D62C9-D773-47FF-8535-B5A31ED450D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="13350"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -388,14 +407,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,151 +424,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,200 +443,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -784,251 +467,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,80 +483,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1373,28 +767,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="27.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="47.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1409,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +814,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +829,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +844,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" ht="42.75" spans="1:5">
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1460,44 +854,44 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" ht="28.5" spans="1:5">
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="28.5" spans="1:5">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="42.75" spans="1:5">
+    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1507,12 +901,12 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +938,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +953,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +968,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +979,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1596,7 +990,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1611,7 +1005,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1622,7 +1016,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1633,7 +1027,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" ht="42.75" spans="1:5">
+    <row r="18" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1650,7 +1044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1661,7 +1055,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1674,7 +1068,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" ht="42.75" spans="1:5">
+    <row r="21" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1684,12 +1078,12 @@
       <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1704,7 +1098,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1719,7 +1113,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" ht="28.5" spans="1:5">
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -1734,7 +1128,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" ht="42.75" spans="1:5">
+    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -1744,12 +1138,12 @@
       <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -1760,7 +1154,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1165,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" ht="28.5" spans="1:5">
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1784,7 +1178,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" ht="28.5" spans="1:5">
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
@@ -1792,12 +1186,12 @@
       <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -1810,7 +1204,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -1823,7 +1217,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -1834,7 +1228,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" ht="28.5" spans="1:5">
+    <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -1847,7 +1241,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" ht="28.5" spans="1:5">
+    <row r="34" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -1860,14 +1254,14 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="39" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -1888,7 +1282,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_RIVER_GODDESS_NAME" Language="zh_Hans_CN" Text="河流女神"/&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -1909,7 +1303,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_MONUMENT_TO_THE_GODS_NAME" Language="zh_Hans_CN" Text="众神丰碑"/&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -1930,7 +1324,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_DIVINE_SPARK_NAME" Language="zh_Hans_CN" Text="神圣火花"/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -1951,7 +1345,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_LADY_OF_THE_REEDS_AND_MARSHES_NAME" Language="zh_Hans_CN" Text="芦沼女神"/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -1972,7 +1366,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_GOD_OF_THE_OPEN_SKY_NAME" Language="zh_Hans_CN" Text="苍天之神"/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -1993,7 +1387,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_INITIATION_RITES_NAME" Language="zh_Hans_CN" Text="入教仪式"/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2014,7 +1408,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_GOD_OF_HEALING_NAME" Language="zh_Hans_CN" Text="疗愈之神"/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2035,7 +1429,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_DIVINE_INSPIRATION_NAME" Language="zh_Hans_CN" Text="神圣启示"/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -2056,7 +1450,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_LAY_MINISTRY_NAME" Language="zh_Hans_CN" Text="教友职务"/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2077,7 +1471,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_HOLY_ORDER_NAME" Language="zh_Hans_CN" Text="圣骑士团"/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2098,7 +1492,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_ITINERANT_PREACHERS_NAME" Language="zh_Hans_CN" Text="巡回宣教"/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2119,7 +1513,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_JUST_WAR_NAME" Language="zh_Hans_CN" Text="正义之战"/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2140,7 +1534,7 @@
         <v>&lt;Replace Tag="LOC_BELIEF_MONASTIC_ISOLATION_NAME" Language="zh_Hans_CN" Text="避世隐修"/&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2162,7 +1556,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/众神信仰.xlsx
+++ b/文档/众神信仰.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1DCFB-9C92-48CD-8E73-F725E303BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5635571-8142-44DE-B708-8368303CFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,6 @@
     <t>LOC_BELIEF_HOLY_ORDER_NAME</t>
   </si>
   <si>
-    <t>圣骑士团</t>
-  </si>
-  <si>
     <t>LOC_BELIEF_ITINERANT_PREACHERS_NAME</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>宗教圣典</t>
+  </si>
+  <si>
+    <t>圣秩制度</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1455,14 +1455,14 @@
         <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>101</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;Replace Tag="LOC_BELIEF_HOLY_ORDER_NAME" Language="zh_Hans_CN" Text="圣骑士团"/&gt;</v>
+        <v>&lt;Replace Tag="LOC_BELIEF_HOLY_ORDER_NAME" Language="zh_Hans_CN" Text="圣秩制度"/&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,13 +1470,13 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
         <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>101</v>
@@ -1491,13 +1491,13 @@
         <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
         <v>101</v>
@@ -1512,13 +1512,13 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
         <v>101</v>
@@ -1533,13 +1533,13 @@
         <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
         <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
         <v>101</v>
